--- a/Libro1.xlsx
+++ b/Libro1.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\estudiante\AppData\Local\Packages\CanonicalGroupLimited.Ubuntu22.04LTS_79rhkp1fndgsc\LocalState\rootfs\home\miko\Gonz-les_ejercicio1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\andrewglez\Gonz-les_ejercicio1\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{956202D3-F30F-4AE5-B95E-6244C694036E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9600"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Andrew</t>
   </si>
@@ -45,39 +46,12 @@
   </si>
   <si>
     <t>Exel</t>
-  </si>
-  <si>
-    <t>Maria</t>
-  </si>
-  <si>
-    <t>César</t>
-  </si>
-  <si>
-    <t>Heidy</t>
-  </si>
-  <si>
-    <t>Hanz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Victoria </t>
-  </si>
-  <si>
-    <t>Jordan</t>
-  </si>
-  <si>
-    <t>Melany</t>
-  </si>
-  <si>
-    <t>Justin</t>
-  </si>
-  <si>
-    <t>Erick</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -127,11 +101,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="B4:C18" totalsRowShown="0">
-  <autoFilter ref="B4:C18"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="B4:C9" totalsRowShown="0">
+  <autoFilter ref="B4:C9" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Nombre"/>
-    <tableColumn id="2" name="Edad"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Nombre"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Edad"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -399,11 +373,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:C18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B4:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -459,78 +433,6 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18">
-        <v>20</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
